--- a/car.xlsx
+++ b/car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823AED0-E522-1242-8FB4-47FE0B8D2F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6FC52-F006-0B40-988A-D8AED1A97530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{D6D47B74-2D32-AE43-AFD8-6BC733F8737F}"/>
   </bookViews>
   <sheets>
     <sheet name="沪CGR757" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,6 +43,26 @@
   </si>
   <si>
     <t>换电瓶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次保养。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小保养，机油升级为壳牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油机滤，机油升级为壳牌。换空调滤芯，买2瓶药水清洗空调。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -122,6 +142,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE3C45-3035-9D44-B37C-38F3296C4BAD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -474,12 +497,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB39432D-5A13-4C4E-BBC3-CF1C8E1B1CE4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1">
+      <c r="A2" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>932</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
